--- a/excel_files/Proportional Counter Crossing Distances.xlsx
+++ b/excel_files/Proportional Counter Crossing Distances.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
+    <workbookView xWindow="980" yWindow="140" windowWidth="23960" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,19 +207,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,47 +515,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="20">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="20">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>70.7</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -558,8 +563,8 @@
         <v>19</v>
       </c>
       <c r="B4" s="1">
-        <f>B3-12.5-28.5</f>
-        <v>29.700000000000003</v>
+        <f>B3-40</f>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -567,11 +572,11 @@
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <f>B3-28.5</f>
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
+        <f>B3-27</f>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28">
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -588,11 +593,11 @@
       </c>
       <c r="D7" s="5">
         <f>(B7*B4)/B3</f>
-        <v>-36.110495049504948</v>
+        <v>-78.452576419213969</v>
       </c>
       <c r="E7" s="5">
         <f>(B7*B5)/B3</f>
-        <v>-51.30851485148515</v>
+        <v>-80.892489082969419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -604,11 +609,11 @@
       </c>
       <c r="D8" s="5">
         <f>(B8*B4)/B3</f>
-        <v>-30.8594342291372</v>
+        <v>-67.044279475982535</v>
       </c>
       <c r="E8" s="5">
         <f>(B8*B5)/B3</f>
-        <v>-43.847411598302685</v>
+        <v>-69.129388646288206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -620,11 +625,11 @@
       </c>
       <c r="D9" s="5">
         <f>(B9*B4)/B3</f>
-        <v>-25.608373408769449</v>
+        <v>-55.635982532751086</v>
       </c>
       <c r="E9" s="5">
         <f>(B9*B5)/B3</f>
-        <v>-36.386308345120227</v>
+        <v>-57.366288209606992</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -636,11 +641,11 @@
       </c>
       <c r="D10" s="5">
         <f>(B10*B4)/B3</f>
-        <v>-20.357312588401697</v>
+        <v>-44.227685589519645</v>
       </c>
       <c r="E10" s="5">
         <f>(B10*B5)/B3</f>
-        <v>-28.925205091937766</v>
+        <v>-45.603187772925772</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -652,11 +657,11 @@
       </c>
       <c r="D11" s="5">
         <f>(B11*B4)/B3</f>
-        <v>-15.106251768033948</v>
+        <v>-32.819388646288211</v>
       </c>
       <c r="E11" s="5">
         <f>(B11*B5)/B3</f>
-        <v>-21.464101838755305</v>
+        <v>-33.840087336244544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,11 +673,11 @@
       </c>
       <c r="D12" s="5">
         <f>(B12*B4)/B3</f>
-        <v>-10.502121640735503</v>
+        <v>-22.816593886462883</v>
       </c>
       <c r="E12" s="5">
         <f>(B12*B5)/B3</f>
-        <v>-14.922206506364921</v>
+        <v>-23.526200873362445</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -684,11 +689,11 @@
       </c>
       <c r="D13" s="5">
         <f>(B13*B4)/B3</f>
-        <v>-5.2510608203677513</v>
+        <v>-11.408296943231441</v>
       </c>
       <c r="E13" s="5">
         <f>(B13*B5)/B3</f>
-        <v>-7.4611032531824604</v>
+        <v>-11.763100436681222</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -716,11 +721,11 @@
       </c>
       <c r="D15" s="5">
         <f>(B15*B4)/B3</f>
-        <v>5.2510608203677513</v>
+        <v>11.408296943231441</v>
       </c>
       <c r="E15" s="5">
         <f>(B15*B5)/B3</f>
-        <v>7.4611032531824604</v>
+        <v>11.763100436681222</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -732,11 +737,11 @@
       </c>
       <c r="D16" s="5">
         <f>(B16*B4)/B3</f>
-        <v>10.502121640735503</v>
+        <v>22.816593886462883</v>
       </c>
       <c r="E16" s="5">
         <f>(B16*B5)/B3</f>
-        <v>14.922206506364921</v>
+        <v>23.526200873362445</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -748,11 +753,11 @@
       </c>
       <c r="D17" s="5">
         <f>(B17*B4)/B3</f>
-        <v>15.106251768033948</v>
+        <v>32.819388646288211</v>
       </c>
       <c r="E17" s="5">
         <f>(B17*B5)/B3</f>
-        <v>21.464101838755305</v>
+        <v>33.840087336244544</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,11 +769,11 @@
       </c>
       <c r="D18" s="5">
         <f>(B18*B4)/B3</f>
-        <v>20.357312588401697</v>
+        <v>44.227685589519645</v>
       </c>
       <c r="E18" s="5">
         <f>(B18*B5)/B3</f>
-        <v>28.925205091937766</v>
+        <v>45.603187772925772</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -780,11 +785,11 @@
       </c>
       <c r="D19" s="5">
         <f>(B19*B4)/B3</f>
-        <v>25.608373408769449</v>
+        <v>55.635982532751086</v>
       </c>
       <c r="E19" s="5">
         <f>(B19*B5)/B3</f>
-        <v>36.386308345120227</v>
+        <v>57.366288209606992</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -796,11 +801,11 @@
       </c>
       <c r="D20" s="5">
         <f>(B20*B4)/B3</f>
-        <v>30.8594342291372</v>
+        <v>67.044279475982535</v>
       </c>
       <c r="E20" s="5">
         <f>(B20*B5)/B3</f>
-        <v>43.847411598302685</v>
+        <v>69.129388646288206</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -812,11 +817,11 @@
       </c>
       <c r="D21" s="5">
         <f>(B21*B4)/B3</f>
-        <v>36.110495049504948</v>
+        <v>78.452576419213969</v>
       </c>
       <c r="E21" s="5">
         <f>(B21*B5)/B3</f>
-        <v>51.30851485148515</v>
+        <v>80.892489082969419</v>
       </c>
     </row>
   </sheetData>
@@ -824,30 +829,45 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>